--- a/eval_out/per_question_details.xlsx
+++ b/eval_out/per_question_details.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Per Question Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Per Question Details" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>UniqueFacts</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EvalConfidence</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -523,23 +528,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Sign-In Partner option exists; Need to select bank from list; Use same sign-in method consistently; Provided official CRA link</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>First-time users may need to provide additional identity verification; Banking credentials are not shared with CRA; Not all financial institutions participate</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>First-time registration may require additional verification; Not all banks participate</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Concise and accurate but lacks some helpful details about limitations and first-time setup.</t>
+        </is>
+      </c>
       <c r="K2" t="n">
-        <v>0.925</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -550,7 +563,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -571,19 +587,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sign-In Partner option; Step-by-step process; First-time registration requirements; Not all banks supported; CRA contact number 1-800-959-8281; Official CRA link</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Comprehensive and accurate answer with all key information.</t>
+        </is>
+      </c>
       <c r="K3" t="n">
-        <v>0.925</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -594,7 +618,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -615,23 +642,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0.95</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Previously known as SecureKey Concierge</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sign-In Partner Login option; Banking credentials not shared with CRA; First-time registration requirements; Most major banks participate; CRA contact number 1-800-959-8281; SecureKey Concierge reference</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Very comprehensive. The SecureKey Concierge reference is accurate historical context, not an unsupported assertion.</t>
+        </is>
+      </c>
       <c r="K4" t="n">
-        <v>0.925</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -642,7 +673,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -663,7 +697,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -671,11 +705,23 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sign-In Partner service; Detailed step-by-step process; Security considerations; Not all institutions participate; Banking info not shared with CRA; Authorization consent step</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CRA contact phone number</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Very detailed and security-conscious answer, missing only the CRA contact number.</t>
+        </is>
+      </c>
       <c r="K5" t="n">
-        <v>0.925</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -686,7 +732,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -707,23 +756,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CRA doesn't assign a single account number for individuals; SIN is the main identifier for individuals; Business Number (BN) is 15 characters for businesses; Can find in account overview/profile after signing in</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Clear explanation that SIN is partially masked in My Account for security; Specific navigation instructions within My Account</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>Specific location details within My Account interface; SIN may be partially masked for security</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Factually correct about CRA not having separate account numbers. BN being 15 characters is accurate (9 digits + 2 letter program + 4 digit account).</t>
+        </is>
+      </c>
       <c r="K6" t="n">
-        <v>0.596</v>
+        <v>0.632</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -734,7 +791,10 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
@@ -755,23 +815,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Specific location where SIN/BN appears in the account interface</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SIN for individuals, BN for businesses; Sign-in methods explained; BN is 9 digits base number; SIN may not be prominently displayed for security; Where to find SIN on other documents; Contact numbers for assistance</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Comprehensive and accurate. BN description as 9 digits is correct for the base number, with program identifiers added.</t>
+        </is>
+      </c>
       <c r="K7" t="n">
-        <v>0.596</v>
+        <v>0.632</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -782,7 +846,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -803,19 +870,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>partially_correct</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SIN visible in top right section of homepage specifically</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SIN is the identifier used; SIN may be partially masked; Can check Profile section; Can find on Notice of Assessment; Contact number provided</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Business account information; Clarification that CRA doesn't assign a separate account number</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>While calling SIN the 'CRA account number' is imprecise terminology, it's not materially misleading since SIN is indeed what identifies your account.</t>
+        </is>
+      </c>
       <c r="K8" t="n">
-        <v>0.596</v>
+        <v>0.632</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -826,7 +909,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="9">
@@ -847,31 +933,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>incorrect</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Claims CRA account number is a nine-digit number (SIN is 9 digits but CRA doesn't use a separate 'account number'); Incorrectly states there is an 'Individual tax account number' separate from SIN</t>
+          <t>Claims CRA has a separate nine-digit account number distinct from SIN; Suggests there's an 'Individual tax account number' that is not the SIN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CRA has a separate 'Individual tax account number'; Account number is displayed prominently in Profile section</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Account number displayed prominently in Profile section; Labeled as 'Individual tax account number'</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Basic login process</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Correct identification that SIN is the account identifier for individuals; Business Number for businesses</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>SIN is the identifier; Business Number information; Security considerations; Correct understanding of CRA identification system</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Fundamentally incorrect - CRA does not issue separate account numbers for individuals beyond their SIN.</t>
+        </is>
+      </c>
       <c r="K9" t="n">
-        <v>0.596</v>
+        <v>0.632</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -882,7 +976,10 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="10">
@@ -893,7 +990,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>where do I sign in to my account? I don't want partner sign in. I do have a CRA sign in. Where do I ...</t>
+          <t>where do I sign in to my account? I don't want partner sign in. I do have a CRA sign in. Where do I put the information?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -903,34 +1000,45 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Select CRA user ID and password option; Avoid Sign-In Partner options; Provides CRA login services URL</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>multi-factor authentication requirement</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>Specific mention of My Account service</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Concise and accurate, provides correct URL and clear instructions to avoid partner sign-in.</t>
+        </is>
+      </c>
       <c r="K10" t="n">
-        <v>0.871</v>
+        <v>0.952</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="11">
@@ -941,7 +1049,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>where do I sign in to my account? I don't want partner sign in. I do have a CRA sign in. Where do I ...</t>
+          <t>where do I sign in to my account? I don't want partner sign in. I do have a CRA sign in. Where do I put the information?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -951,7 +1059,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -959,22 +1067,33 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Direct link to My Account page; Select CRA sign-in option; Enter CRA user ID and password; Multi-factor authentication mention; Password recovery options; CRA phone number for assistance</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Comprehensive answer with correct URL, detailed steps, and additional helpful information.</t>
+        </is>
+      </c>
       <c r="K11" t="n">
-        <v>0.871</v>
+        <v>0.952</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="12">
@@ -985,7 +1104,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>where do I sign in to my account? I don't want partner sign in. I do have a CRA sign in. Where do I ...</t>
+          <t>where do I sign in to my account? I don't want partner sign in. I do have a CRA sign in. Where do I put the information?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -995,34 +1114,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>multi-factor authentication requirement</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Direct URL to My Account; Select CRA login not partner login; Enter CRA user ID and password; Password/ID recovery options; e-Services Helpdesk phone number</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Clear and accurate with correct URL and helpdesk contact information.</t>
+        </is>
+      </c>
       <c r="K12" t="n">
-        <v>0.871</v>
+        <v>0.952</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="13">
@@ -1033,7 +1159,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>where do I sign in to my account? I don't want partner sign in. I do have a CRA sign in. Where do I ...</t>
+          <t>where do I sign in to my account? I don't want partner sign in. I do have a CRA sign in. Where do I put the information?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1043,34 +1169,45 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Navigate to CRA website; Find My Account button; Choose CRA sign-in option; Enter credentials; Password recovery mention</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>multi-factor authentication requirement; specific URL to the My Account page</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>Specific direct URL to My Account login page</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Provides step-by-step navigation from homepage, though less direct than providing the specific My Account URL.</t>
+        </is>
+      </c>
       <c r="K13" t="n">
-        <v>0.871</v>
+        <v>0.952</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="14">
@@ -1091,23 +1228,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>partially_correct</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Personal and business accounts are separate; Can use same sign-in method if registered; Need to register for personal account if not already done; Provides official CRA login services URL</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Specific distinction between My Account (personal) and My Business Account portals; Registration process details if user doesn't have personal account access; CRA contact information for assistance</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>Specific registration steps; Sign-in options details (CRA ID vs Sign-In Partner); Contact information for help</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Brief but accurate answer covering essential points. The URL provided is correct and helpful.</t>
+        </is>
+      </c>
       <c r="K14" t="n">
-        <v>0.737</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1118,7 +1263,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="15">
@@ -1139,7 +1287,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1147,11 +1295,19 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Personal and business accounts are separate; Two sign-in options clearly explained (CRA ID and Sign-In Partner); Registration process if needed; Specific URLs provided; Contact information (1-800-959-8281); Hours of operation for phone support</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Comprehensive answer with clear steps and all necessary information for both sign-in and registration.</t>
+        </is>
+      </c>
       <c r="K15" t="n">
-        <v>0.737</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1162,7 +1318,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="16">
@@ -1183,23 +1342,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Line 23600, 15000, or 15000 appears to have a typo - repeating line 15000 twice instead of providing different line numbers</t>
-        </is>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Personal and business accounts are separate; Detailed registration process; Two sign-in options; Required information for registration (SIN, DOB, postal code, tax return line); Security code mailing process (5-10 days); Contact information</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Direct URLs to access pages</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Very detailed registration process information. Correctly identifies tax return line numbers and security code process.</t>
+        </is>
+      </c>
       <c r="K16" t="n">
-        <v>0.737</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1210,7 +1377,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="17">
@@ -1231,23 +1401,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Step-by-step navigation instructions; Two login methods (CRA ID and Sign-In Partner); Troubleshooting tips (cache/cookies); Contact information; Clear distinction between personal and business accounts</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Registration process if user doesn't already have personal account credentials</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>Registration process details if user doesn't have personal account yet</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Clear navigation instructions with practical troubleshooting advice for browser issues.</t>
+        </is>
+      </c>
       <c r="K17" t="n">
-        <v>0.737</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1258,7 +1436,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="18">
@@ -1279,34 +1460,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Specific authorization forms (T1013, RC59); Different authorization levels available</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Use Represent a Client service in your own CRA account; Never use client's credentials; Client authorization required</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Concise, accurate answer with correct link to official source. Directly answers the question.</t>
+        </is>
+      </c>
       <c r="K18" t="n">
-        <v>0.9350000000000001</v>
+        <v>1</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="19">
@@ -1327,34 +1515,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Different authorization levels (Level 1 vs Level 2)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Use Represent a Client portal, not personal My Account; Registration process for Represent a Client; Authorization via AUT-01 form; Never use client's credentials; Sign-In Partner option available</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Comprehensive answer with detailed steps. AUT-01 is a valid CRA authorization form.</t>
+        </is>
+      </c>
       <c r="K19" t="n">
-        <v>0.9350000000000001</v>
+        <v>1</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="20">
@@ -1375,7 +1570,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1383,22 +1578,33 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sign in to own Represent a Client portal; Authorization forms T1013 and RC59; Business Consent option; Family member authorization options; Never use someone else's credentials; Authorization levels (Level 1 and 2); CRA phone numbers for assistance</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Very detailed answer covering multiple scenarios. T1013 and RC59 are correct CRA authorization forms.</t>
+        </is>
+      </c>
       <c r="K20" t="n">
-        <v>0.9350000000000001</v>
+        <v>1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="21">
@@ -1419,34 +1625,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Specific authorization forms (T1013, RC59); Different authorization levels; CRA contact numbers for assistance</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Access through Represent a Client service; Use own CRA credentials or sign-in partner; Client identification process; Authorization requirement; Never use client's credentials; Security protocol importance</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Clear step-by-step process with emphasis on security and proper protocols.</t>
+        </is>
+      </c>
       <c r="K21" t="n">
-        <v>0.9350000000000001</v>
+        <v>1</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="22">
@@ -1462,36 +1675,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AI answers response</t>
+          <t>AI answers</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>incorrect</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>States you must contact CRA to revoke Sign-In Partner credential before registering for CRA user ID, which is not a standard requirement</t>
+          <t>States you must contact CRA to revoke Sign-In Partner credential before registering for CRA user ID - this is false, both methods can coexist</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Must contact CRA to revoke Sign-In Partner credential</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>Must contact CRA to revoke credential; Credential must be revoked before registration</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Can register for CRA user ID and password</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Detailed registration steps; Required information for registration (SIN, DOB, postal code, tax return amount); Security code mailing process</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>Registration process details; Both sign-in methods can coexist; Security code requirement; Required verification information</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Provides materially misleading information that could prevent users from successfully registering</t>
+        </is>
+      </c>
       <c r="K22" t="n">
-        <v>0.545</v>
+        <v>0.569</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1499,10 +1720,13 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="23">
@@ -1523,7 +1747,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1531,11 +1755,19 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Step-by-step registration process; Required information for registration; Security code mailed within 10 business days; Both methods access same account information; CRA contact number; Registration happens separately from Sign-In Partner</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Comprehensive and accurate answer with correct registration process</t>
+        </is>
+      </c>
       <c r="K23" t="n">
-        <v>0.545</v>
+        <v>0.569</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1543,10 +1775,13 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="24">
@@ -1567,27 +1802,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>mostly_correct</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Personal access code (PAC) mentioned as optional requirement - PAC is typically for different purposes</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>Lists PAC as a requirement when it's optional</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Registration process; Required information; Security questions setup; CRA contact number; Registration happens separately</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Security code mailing timeline</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>Security code mailing timeline; Explicit clarification that both methods can coexist</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Generally accurate but minor issue with PAC being listed as required</t>
+        </is>
+      </c>
       <c r="K24" t="n">
-        <v>0.545</v>
+        <v>0.569</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1595,10 +1838,13 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1865,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>incorrect</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Incorrectly states you can create CRA login from within My Account after logging in with Sign-In Partner; Suggests there's an option to switch within the account settings; Mentions email verification which is not part of CRA user ID registration</t>
+          <t>Claims you can create CRA credentials from within My Account after logging in with Sign-In Partner - this is completely false; No mention of the actual separate registration process; No mention of mailed security code which is essential for access</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Can create CRA login from within My Account; Email verification required; Option exists in profile settings to switch</t>
+          <t>Can switch/create CRA login from within My Account profile settings; Email verification process instead of mailed security code; Navigate to profile settings or security options to create CRA login</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Correct registration process; Required verification information; Security code mailing process</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>Correct registration process outside of My Account; Security code requirement and mailing; Required verification information; Registration URL and proper steps</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Completely misunderstands the CRA registration process with dangerous misinformation</t>
+        </is>
+      </c>
       <c r="K25" t="n">
-        <v>0.545</v>
+        <v>0.569</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1651,10 +1901,13 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="26">
@@ -1675,23 +1928,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Access through main CRA sign-in page; Select My Business Account; Same site for personal and business accounts; Provides correct URL</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Business Number (BN) requirement for registration; Security code mailing process for new registrations; Represent a Client option for accountants/representatives; CRA business enquiries phone number</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>Registration process details; Business Number requirement</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Actually correct - you DO use the same CRA login page and select My Business Account. Brief but accurate.</t>
+        </is>
+      </c>
       <c r="K26" t="n">
-        <v>0.778</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1702,7 +1963,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="27">
@@ -1723,19 +1987,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>My Business Account is separate service from My Account; Multiple sign-in options; Business Number requirement; Authorization requirements; Represent a Client option; Contact information</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Comprehensive and accurate. Correctly notes it's a separate service accessed from the same login page.</t>
+        </is>
+      </c>
       <c r="K27" t="n">
-        <v>0.778</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1746,7 +2018,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="28">
@@ -1767,7 +2042,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1775,15 +2050,23 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>My Business Account separate from My Account; Sign-in methods; Registration process; Security code mailing; 45-day deadline for code entry; Contact information</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Represent a Client option for accountants/representatives</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>Represent a Client option</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Well-structured answer with good detail on registration process.</t>
+        </is>
+      </c>
       <c r="K28" t="n">
-        <v>0.778</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1794,7 +2077,10 @@
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="29">
@@ -1815,27 +2101,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>incorrect</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>States you use the same credentials as personal CRA account and select business account once logged in - this is incorrect, My Business Account is a separate service with its own registration</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+          <t>States you use same credentials as personal account and select business account after login - this is materially misleading as My Business Account requires separate registration and has its own access permissions</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>You will see a list of your accounts and choose the business account</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CRA website access; Sign-in methods; Two-step verification</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Business Number (BN) requirement; Security code mailing process for new registrations; Represent a Client option</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>My Business Account is a separate service; Business Number requirement; Separate registration required</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Fundamentally misunderstands how CRA business accounts work - they are not just selectable from personal accounts.</t>
+        </is>
+      </c>
       <c r="K29" t="n">
-        <v>0.778</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1846,7 +2144,10 @@
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="30">
@@ -1867,23 +2168,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>The 'Switch to CRA' feature that allows navigation between MSCA and CRA accounts; Sign-in partner options for accessing CRA account; GCKey as a sign-in option</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>MSCA and CRA accounts are separate; Cannot access CRA directly from MSCA; Need to use CRA sign-in page</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Accurate, direct answer to the question. Correctly states the accounts are separate.</t>
+        </is>
+      </c>
       <c r="K30" t="n">
-        <v>0.829</v>
+        <v>0.528</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1894,7 +2199,10 @@
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="31">
@@ -1915,23 +2223,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>The 'Switch to CRA' feature that allows navigation between accounts; GCKey as a sign-in option</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Service Canada and CRA accounts are separate; Cannot automatically access CRA from Service Canada; Multiple sign-in options available; Registration process details</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Comprehensive and accurate answer with helpful additional information about CRA account access methods.</t>
+        </is>
+      </c>
       <c r="K31" t="n">
-        <v>0.829</v>
+        <v>0.528</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1942,7 +2254,10 @@
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="32">
@@ -1963,19 +2278,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>incorrect</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Falsely claims a 'Switch to CRA' feature exists in MSCA dashboard that allows navigation between the two services</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Switch to CRA link/button exists in MSCA dashboard</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Direct CRA access methods; Sign-in options</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>The 'Switch to CRA' feature does not exist. This is materially misleading as it gives users false expectations about functionality.</t>
+        </is>
+      </c>
       <c r="K32" t="n">
-        <v>0.829</v>
+        <v>0.528</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1986,7 +2317,10 @@
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="33">
@@ -2007,7 +2341,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>partially_correct</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2015,15 +2349,23 @@
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>CRA requires separate login process; Correct CRA access methods</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>The 'Switch to CRA' feature that allows navigation between MSCA and CRA accounts; GCKey as a sign-in option; Direct answer to whether you can access CRA from Service Canada account</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>Direct answer that you cannot access CRA from Service Canada account</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>While technically correct about CRA access requiring separate login, fails to directly answer whether you can access CRA from Service Canada account.</t>
+        </is>
+      </c>
       <c r="K33" t="n">
-        <v>0.829</v>
+        <v>0.528</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2034,7 +2376,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="34">
@@ -2055,34 +2400,45 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>partially_correct</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Mentions correct sign-in methods (CRA user ID, Interac Sign-In Partner); Provincial partner is a valid sign-in option; Provides correct CRA login services URL; Mentions My Account, My Business Account, and Represent a Client</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>No mention of GCKey as a sign-in option; Missing specific troubleshooting for why user might only see registration options</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>No mention of GCKey as a sign-in option; No troubleshooting steps if still having issues; No contact information for help</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Brief but accurate. Provincial partners are indeed valid CRA sign-in options.</t>
+        </is>
+      </c>
       <c r="K34" t="n">
-        <v>0.871</v>
+        <v>0.862</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="35">
@@ -2103,34 +2459,45 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Provides correct URL for My Account; Mentions Sign-In Partner and CRA User ID options; Includes practical troubleshooting suggestions; Provides correct CRA phone number (1-800-959-8281)</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>No mention of GCKey as a sign-in option</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>No mention of GCKey option; No mention of business account sign-in</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Comprehensive answer with good troubleshooting advice and correct contact info.</t>
+        </is>
+      </c>
       <c r="K35" t="n">
-        <v>0.871</v>
+        <v>0.862</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="36">
@@ -2151,30 +2518,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Provides correct URL; Lists all three main sign-in options (CRA user ID, Sign-in Partner/SecureKey, GCKey); Includes password recovery information; Provides both individual and business account phone numbers</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Most complete answer with all sign-in methods and both phone numbers.</t>
+        </is>
+      </c>
       <c r="K36" t="n">
-        <v>0.871</v>
+        <v>0.862</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="37">
@@ -2195,34 +2573,45 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>partially_correct</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Mentions CRA user ID and Sign-in Partner options; Includes password recovery mention; Provides general navigation guidance</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>No mention of GCKey as a sign-in option; Vague navigation instructions compared to direct URL provision</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>No specific URL provided; No mention of GCKey; No CRA contact phone numbers; Less specific navigation instructions</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>General guidance is correct but lacks specificity and completeness.</t>
+        </is>
+      </c>
       <c r="K37" t="n">
-        <v>0.871</v>
+        <v>0.862</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="38">
@@ -2233,33 +2622,45 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>my CRA sign in is through my bank and I need to sign in to file my taxes but the CRA Partner sign in...</t>
+          <t>my CRA sign in is through my bank and I need to sign in to file my taxes but the CRA Partner sign in is not available</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AI answers response</t>
+          <t>AI answers</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>partially_correct</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>may need to call CRA to revoke it before registering a new sign-in method</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Alternative sign-in options available; CRA user ID and password option; Provincial partner options</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>No mention of NETFILE-certified software as an alternative for filing taxes; No CRA phone numbers provided for assistance; No mention that Partner Sign-In issues are often temporary; No details about what information is needed to register for CRA user ID</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t>NETFILE as alternative for filing without My Account access; Specific phone numbers for assistance; Paper filing option</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Brief but covers main alternatives. The revocation requirement is not standard procedure - users can typically register for additional sign-in methods without revoking existing ones.</t>
+        </is>
+      </c>
       <c r="K38" t="n">
-        <v>0.892</v>
+        <v>0.915</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2267,10 +2668,13 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="39">
@@ -2281,7 +2685,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>my CRA sign in is through my bank and I need to sign in to file my taxes but the CRA Partner sign in...</t>
+          <t>my CRA sign in is through my bank and I need to sign in to file my taxes but the CRA Partner sign in is not available</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2291,7 +2695,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2299,15 +2703,23 @@
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>CRA user ID alternative; Registration process details; NETFILE option; Phone support number (1-800-959-8281); System outages page; Security code by mail requirement</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>No mention of provincial partner options (BC Services Card, Alberta.ca Account)</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>Provincial partner options; Technical support phone number</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Comprehensive and accurate response with proper phone numbers and links. All information provided is verifiable.</t>
+        </is>
+      </c>
       <c r="K39" t="n">
-        <v>0.892</v>
+        <v>0.915</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2315,10 +2727,13 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="40">
@@ -2329,7 +2744,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>my CRA sign in is through my bank and I need to sign in to file my taxes but the CRA Partner sign in...</t>
+          <t>my CRA sign in is through my bank and I need to sign in to file my taxes but the CRA Partner sign in is not available</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2339,11 +2754,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
@@ -2351,15 +2766,23 @@
           <t>Technical issues are typically resolved within 24 hours</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>CRA user ID alternative; My Service Canada Account option; Registration requirements; Both phone numbers (1-800-959-8281 and 1-800-714-7257); NETFILE option; Line 23600 reference</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>No mention of provincial partner options (BC Services Card, Alberta.ca Account); No mention of receiving security code by mail after CRA registration</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t>Paper filing option; Security code by mail for registration</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Good coverage with both phone numbers. The 24-hour resolution claim is speculative and not guaranteed by CRA.</t>
+        </is>
+      </c>
       <c r="K40" t="n">
-        <v>0.892</v>
+        <v>0.915</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2367,10 +2790,13 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="41">
@@ -2381,7 +2807,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>my CRA sign in is through my bank and I need to sign in to file my taxes but the CRA Partner sign in...</t>
+          <t>my CRA sign in is through my bank and I need to sign in to file my taxes but the CRA Partner sign in is not available</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2391,23 +2817,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Try again later; Different partner option; CRA user ID alternative; NETFILE option; Paper filing option; Phone support (1-800-959-8281)</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>No mention of provincial partner options (BC Services Card, Alberta.ca Account); No specific mention of My Service Canada Account as an alternative; No mention of security code by mail for CRA registration</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>Provincial partner options; Technical support phone number; Security code requirement for new registration</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Good practical advice including paper filing option that others missed. All suggestions are valid alternatives.</t>
+        </is>
+      </c>
       <c r="K41" t="n">
-        <v>0.892</v>
+        <v>0.915</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2415,10 +2849,13 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
